--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152553/152553_com_1364_male_without_photo_77_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152553/152553_com_1364_male_without_photo_77_2025-11-24.pdf.xlsx
@@ -9891,7 +9891,7 @@
       </c>
       <c r="F225" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর জন্ম তারিখ: ১২/১০/১৯৯৮</t>
         </is>
       </c>
       <c r="G225" s="3" t="inlineStr">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা জন্ম তারিখ:০৪/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
